--- a/Account.xlsx
+++ b/Account.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="November" sheetId="1" r:id="rId1"/>
+    <sheet name="December" sheetId="2" r:id="rId1"/>
+    <sheet name="November" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -128,6 +129,15 @@
   </si>
   <si>
     <t>each</t>
+  </si>
+  <si>
+    <t>Shim+Alu+shak</t>
+  </si>
+  <si>
+    <t>shim+morich</t>
+  </si>
+  <si>
+    <t>Total 3 add=&gt;</t>
   </si>
 </sst>
 </file>
@@ -472,7 +482,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +516,111 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>SUM(B2:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D2:D19)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>SUM(D25-B20)</f>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="D22">
+        <f>SUM(D25-D20)</f>
+        <v>-46.666666666666664</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <f>SUM(D20,F24,B20)</f>
+        <v>130</v>
+      </c>
+      <c r="F24">
+        <f>SUM(F2:F23)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <f>D24/3</f>
+        <v>43.333333333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f>SUM(D25-F24)</f>
+        <v>3.3333333333333357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="December" sheetId="2" r:id="rId1"/>
     <sheet name="November" sheetId="1" r:id="rId2"/>
+    <sheet name="Formate" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -138,6 +139,21 @@
   </si>
   <si>
     <t>Total 3 add=&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;=Due</t>
+  </si>
+  <si>
+    <t>&lt;=Due</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Shak+Danga</t>
   </si>
 </sst>
 </file>
@@ -482,7 +498,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,6 +545,20 @@
         <v>40</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3">
+        <v>55</v>
+      </c>
+    </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>SUM(B2:B19)</f>
@@ -536,17 +566,17 @@
       </c>
       <c r="D20">
         <f>SUM(D2:D19)</f>
-        <v>90</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(D25-B20)</f>
-        <v>43.333333333333336</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="D22">
         <f>SUM(D25-D20)</f>
-        <v>-46.666666666666664</v>
+        <v>-101.66666666666667</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -555,11 +585,11 @@
       </c>
       <c r="D24">
         <f>SUM(D20,F24,B20)</f>
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="F24">
         <f>SUM(F2:F23)</f>
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -568,13 +598,13 @@
       </c>
       <c r="D25">
         <f>D24/3</f>
-        <v>43.333333333333336</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>SUM(D25-F24)</f>
-        <v>3.3333333333333357</v>
+        <v>3.3333333333333286</v>
       </c>
     </row>
   </sheetData>
@@ -950,4 +980,122 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>SUM(B2:B19)</f>
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D2:D19)</f>
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <f>SUM(F2:F19)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>SUM(D25-B20)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22">
+        <f>SUM(D25-D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22">
+        <f>SUM(D25-F20)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <f>SUM(B20,D20,F20)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <f>D24/3</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Account.xlsx
+++ b/Account.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Shak+Danga</t>
+  </si>
+  <si>
+    <t>Oil</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,6 +535,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>320</v>
+      </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
@@ -562,7 +571,7 @@
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>SUM(B2:B19)</f>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="D20">
         <f>SUM(D2:D19)</f>
@@ -572,11 +581,11 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(D25-B20)</f>
-        <v>98.333333333333329</v>
+        <v>-115</v>
       </c>
       <c r="D22">
         <f>SUM(D25-D20)</f>
-        <v>-101.66666666666667</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -585,7 +594,7 @@
       </c>
       <c r="D24">
         <f>SUM(D20,F24,B20)</f>
-        <v>295</v>
+        <v>615</v>
       </c>
       <c r="F24">
         <f>SUM(F2:F23)</f>
@@ -598,13 +607,13 @@
       </c>
       <c r="D25">
         <f>D24/3</f>
-        <v>98.333333333333329</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>SUM(D25-F24)</f>
-        <v>3.3333333333333286</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -157,6 +157,21 @@
   </si>
   <si>
     <t>Oil</t>
+  </si>
+  <si>
+    <t>Mas+ Peaj +roshun+riska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shim </t>
+  </si>
+  <si>
+    <t>kopi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peaj pata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mas </t>
   </si>
 </sst>
 </file>
@@ -501,7 +516,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,6 +583,52 @@
         <v>55</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>750</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8">
+        <v>110</v>
+      </c>
+    </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>SUM(B2:B19)</f>
@@ -575,17 +636,17 @@
       </c>
       <c r="D20">
         <f>SUM(D2:D19)</f>
-        <v>200</v>
+        <v>950</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(D25-B20)</f>
-        <v>-115</v>
+        <v>205</v>
       </c>
       <c r="D22">
         <f>SUM(D25-D20)</f>
-        <v>5</v>
+        <v>-425</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -594,11 +655,11 @@
       </c>
       <c r="D24">
         <f>SUM(D20,F24,B20)</f>
-        <v>615</v>
+        <v>1575</v>
       </c>
       <c r="F24">
         <f>SUM(F2:F23)</f>
-        <v>95</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -607,13 +668,13 @@
       </c>
       <c r="D25">
         <f>D24/3</f>
-        <v>205</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>SUM(D25-F24)</f>
-        <v>110</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -172,6 +172,21 @@
   </si>
   <si>
     <t xml:space="preserve">Mas </t>
+  </si>
+  <si>
+    <t>2kg alu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">holud gura + Jira gura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shak </t>
+  </si>
+  <si>
+    <t>Chal</t>
+  </si>
+  <si>
+    <t>Rishka</t>
   </si>
 </sst>
 </file>
@@ -516,7 +531,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,6 +644,46 @@
         <v>110</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+    </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>SUM(B2:B19)</f>
@@ -642,11 +697,11 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(D25-B20)</f>
-        <v>205</v>
+        <v>358.33333333333337</v>
       </c>
       <c r="D22">
         <f>SUM(D25-D20)</f>
-        <v>-425</v>
+        <v>-271.66666666666663</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -655,11 +710,11 @@
       </c>
       <c r="D24">
         <f>SUM(D20,F24,B20)</f>
-        <v>1575</v>
+        <v>2035</v>
       </c>
       <c r="F24">
         <f>SUM(F2:F23)</f>
-        <v>305</v>
+        <v>765</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -668,13 +723,13 @@
       </c>
       <c r="D25">
         <f>D24/3</f>
-        <v>525</v>
+        <v>678.33333333333337</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>SUM(D25-F24)</f>
-        <v>220</v>
+        <v>-86.666666666666629</v>
       </c>
     </row>
   </sheetData>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,6 +684,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+    </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>SUM(B2:B19)</f>
@@ -697,11 +705,11 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(D25-B20)</f>
-        <v>358.33333333333337</v>
+        <v>368.33333333333337</v>
       </c>
       <c r="D22">
         <f>SUM(D25-D20)</f>
-        <v>-271.66666666666663</v>
+        <v>-261.66666666666663</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -710,11 +718,11 @@
       </c>
       <c r="D24">
         <f>SUM(D20,F24,B20)</f>
-        <v>2035</v>
+        <v>2065</v>
       </c>
       <c r="F24">
         <f>SUM(F2:F23)</f>
-        <v>765</v>
+        <v>795</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -723,13 +731,13 @@
       </c>
       <c r="D25">
         <f>D24/3</f>
-        <v>678.33333333333337</v>
+        <v>688.33333333333337</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>SUM(D25-F24)</f>
-        <v>-86.666666666666629</v>
+        <v>-106.66666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Rishka</t>
+  </si>
+  <si>
+    <t>Sosa</t>
+  </si>
+  <si>
+    <t>peaj pata</t>
   </si>
 </sst>
 </file>
@@ -530,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,6 +619,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
       <c r="E5" t="s">
         <v>49</v>
       </c>
@@ -621,6 +633,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
       <c r="E6" t="s">
         <v>50</v>
       </c>
@@ -699,17 +717,17 @@
       </c>
       <c r="D20">
         <f>SUM(D2:D19)</f>
-        <v>950</v>
+        <v>980</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(D25-B20)</f>
-        <v>368.33333333333337</v>
+        <v>378.33333333333337</v>
       </c>
       <c r="D22">
         <f>SUM(D25-D20)</f>
-        <v>-261.66666666666663</v>
+        <v>-281.66666666666663</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -718,7 +736,7 @@
       </c>
       <c r="D24">
         <f>SUM(D20,F24,B20)</f>
-        <v>2065</v>
+        <v>2095</v>
       </c>
       <c r="F24">
         <f>SUM(F2:F23)</f>
@@ -731,13 +749,13 @@
       </c>
       <c r="D25">
         <f>D24/3</f>
-        <v>688.33333333333337</v>
+        <v>698.33333333333337</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>SUM(D25-F24)</f>
-        <v>-106.66666666666663</v>
+        <v>-96.666666666666629</v>
       </c>
     </row>
   </sheetData>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -537,7 +537,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,6 +591,12 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -605,6 +611,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
@@ -713,7 +725,7 @@
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>SUM(B2:B19)</f>
-        <v>320</v>
+        <v>375</v>
       </c>
       <c r="D20">
         <f>SUM(D2:D19)</f>
@@ -723,11 +735,11 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(D25-B20)</f>
-        <v>378.33333333333337</v>
+        <v>341.66666666666663</v>
       </c>
       <c r="D22">
         <f>SUM(D25-D20)</f>
-        <v>-281.66666666666663</v>
+        <v>-263.33333333333337</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -736,7 +748,7 @@
       </c>
       <c r="D24">
         <f>SUM(D20,F24,B20)</f>
-        <v>2095</v>
+        <v>2150</v>
       </c>
       <c r="F24">
         <f>SUM(F2:F23)</f>
@@ -749,13 +761,13 @@
       </c>
       <c r="D25">
         <f>D24/3</f>
-        <v>698.33333333333337</v>
+        <v>716.66666666666663</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>SUM(D25-F24)</f>
-        <v>-96.666666666666629</v>
+        <v>-78.333333333333371</v>
       </c>
     </row>
   </sheetData>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>peaj pata</t>
+  </si>
+  <si>
+    <t>murgi</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,6 +725,46 @@
         <v>30</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+    </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>SUM(B2:B19)</f>
@@ -735,11 +778,11 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(D25-B20)</f>
-        <v>341.66666666666663</v>
+        <v>446.66666666666663</v>
       </c>
       <c r="D22">
         <f>SUM(D25-D20)</f>
-        <v>-263.33333333333337</v>
+        <v>-158.33333333333337</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -748,11 +791,11 @@
       </c>
       <c r="D24">
         <f>SUM(D20,F24,B20)</f>
-        <v>2150</v>
+        <v>2465</v>
       </c>
       <c r="F24">
         <f>SUM(F2:F23)</f>
-        <v>795</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -761,13 +804,13 @@
       </c>
       <c r="D25">
         <f>D24/3</f>
-        <v>716.66666666666663</v>
+        <v>821.66666666666663</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>SUM(D25-F24)</f>
-        <v>-78.333333333333371</v>
+        <v>-288.33333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>murgi</t>
+  </si>
+  <si>
+    <t>murgi kata khala</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,15 +777,21 @@
         <f>SUM(D2:D19)</f>
         <v>980</v>
       </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(D25-B20)</f>
-        <v>446.66666666666663</v>
+        <v>450</v>
       </c>
       <c r="D22">
         <f>SUM(D25-D20)</f>
-        <v>-158.33333333333337</v>
+        <v>-155</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -791,11 +800,11 @@
       </c>
       <c r="D24">
         <f>SUM(D20,F24,B20)</f>
-        <v>2465</v>
+        <v>2475</v>
       </c>
       <c r="F24">
         <f>SUM(F2:F23)</f>
-        <v>1110</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -804,13 +813,13 @@
       </c>
       <c r="D25">
         <f>D24/3</f>
-        <v>821.66666666666663</v>
+        <v>825</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>SUM(D25-F24)</f>
-        <v>-288.33333333333337</v>
+        <v>-295</v>
       </c>
     </row>
   </sheetData>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>murgi kata khala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulkopi+ alu </t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,6 +640,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
       <c r="C5" t="s">
         <v>57</v>
       </c>
@@ -771,7 +780,7 @@
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>SUM(B2:B19)</f>
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="D20">
         <f>SUM(D2:D19)</f>
@@ -787,11 +796,11 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(D25-B20)</f>
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="D22">
         <f>SUM(D25-D20)</f>
-        <v>-155</v>
+        <v>-135</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -800,7 +809,7 @@
       </c>
       <c r="D24">
         <f>SUM(D20,F24,B20)</f>
-        <v>2475</v>
+        <v>2535</v>
       </c>
       <c r="F24">
         <f>SUM(F2:F23)</f>
@@ -813,13 +822,13 @@
       </c>
       <c r="D25">
         <f>D24/3</f>
-        <v>825</v>
+        <v>845</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>SUM(D25-F24)</f>
-        <v>-295</v>
+        <v>-275</v>
       </c>
     </row>
   </sheetData>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t xml:space="preserve">fulkopi+ alu </t>
+  </si>
+  <si>
+    <t>kope</t>
+  </si>
+  <si>
+    <t>dhonia</t>
   </si>
 </sst>
 </file>
@@ -545,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,6 +666,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>260</v>
+      </c>
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -674,6 +686,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
@@ -682,6 +700,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
       <c r="E8" t="s">
         <v>51</v>
       </c>
@@ -690,6 +714,12 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
       <c r="E9" t="s">
         <v>52</v>
       </c>
@@ -698,6 +728,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
       <c r="E10" t="s">
         <v>53</v>
       </c>
@@ -780,7 +816,7 @@
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>SUM(B2:B19)</f>
-        <v>435</v>
+        <v>805</v>
       </c>
       <c r="D20">
         <f>SUM(D2:D19)</f>
@@ -796,11 +832,11 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(D25-B20)</f>
-        <v>410</v>
+        <v>163.33333333333337</v>
       </c>
       <c r="D22">
         <f>SUM(D25-D20)</f>
-        <v>-135</v>
+        <v>-11.666666666666629</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -809,7 +845,7 @@
       </c>
       <c r="D24">
         <f>SUM(D20,F24,B20)</f>
-        <v>2535</v>
+        <v>2905</v>
       </c>
       <c r="F24">
         <f>SUM(F2:F23)</f>
@@ -822,13 +858,13 @@
       </c>
       <c r="D25">
         <f>D24/3</f>
-        <v>845</v>
+        <v>968.33333333333337</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>SUM(D25-F24)</f>
-        <v>-275</v>
+        <v>-151.66666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>dhonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peaj  </t>
+  </si>
+  <si>
+    <t>bokole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shim  </t>
   </si>
 </sst>
 </file>
@@ -551,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,6 +701,12 @@
       <c r="B7">
         <v>45</v>
       </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
@@ -705,6 +720,12 @@
       </c>
       <c r="B8">
         <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -820,23 +841,45 @@
       </c>
       <c r="D20">
         <f>SUM(D2:D19)</f>
-        <v>980</v>
+        <v>1020</v>
       </c>
       <c r="E20" t="s">
         <v>60</v>
       </c>
       <c r="F20">
         <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21">
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(D25-B20)</f>
-        <v>163.33333333333337</v>
+        <v>293.33333333333326</v>
       </c>
       <c r="D22">
         <f>SUM(D25-D20)</f>
-        <v>-11.666666666666629</v>
+        <v>78.333333333333258</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -845,11 +888,11 @@
       </c>
       <c r="D24">
         <f>SUM(D20,F24,B20)</f>
-        <v>2905</v>
+        <v>3295</v>
       </c>
       <c r="F24">
         <f>SUM(F2:F23)</f>
-        <v>1120</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -858,13 +901,13 @@
       </c>
       <c r="D25">
         <f>D24/3</f>
-        <v>968.33333333333337</v>
+        <v>1098.3333333333333</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>SUM(D25-F24)</f>
-        <v>-151.66666666666663</v>
+        <v>-371.66666666666674</v>
       </c>
     </row>
   </sheetData>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t xml:space="preserve">shim  </t>
+  </si>
+  <si>
+    <t>Puishak biche + alu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">donea </t>
   </si>
 </sst>
 </file>
@@ -560,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,6 +750,12 @@
       <c r="B9">
         <v>25</v>
       </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
       <c r="E9" t="s">
         <v>52</v>
       </c>
@@ -755,6 +770,12 @@
       <c r="B10">
         <v>5</v>
       </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
       <c r="E10" t="s">
         <v>53</v>
       </c>
@@ -763,6 +784,12 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
       <c r="E11" t="s">
         <v>54</v>
       </c>
@@ -771,6 +798,12 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
       <c r="E12" t="s">
         <v>55</v>
       </c>
@@ -779,6 +812,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
       <c r="E13" t="s">
         <v>56</v>
       </c>
@@ -787,6 +826,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
@@ -837,11 +882,11 @@
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>SUM(B2:B19)</f>
-        <v>805</v>
+        <v>895</v>
       </c>
       <c r="D20">
         <f>SUM(D2:D19)</f>
-        <v>1020</v>
+        <v>1095</v>
       </c>
       <c r="E20" t="s">
         <v>60</v>
@@ -861,11 +906,11 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(D25-B20)</f>
-        <v>293.33333333333326</v>
+        <v>258.33333333333326</v>
       </c>
       <c r="D22">
         <f>SUM(D25-D20)</f>
-        <v>78.333333333333258</v>
+        <v>58.333333333333258</v>
       </c>
       <c r="E22" t="s">
         <v>55</v>
@@ -888,7 +933,7 @@
       </c>
       <c r="D24">
         <f>SUM(D20,F24,B20)</f>
-        <v>3295</v>
+        <v>3460</v>
       </c>
       <c r="F24">
         <f>SUM(F2:F23)</f>
@@ -901,13 +946,13 @@
       </c>
       <c r="D25">
         <f>D24/3</f>
-        <v>1098.3333333333333</v>
+        <v>1153.3333333333333</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>SUM(D25-F24)</f>
-        <v>-371.66666666666674</v>
+        <v>-316.66666666666674</v>
       </c>
     </row>
   </sheetData>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t xml:space="preserve">donea </t>
+  </si>
+  <si>
+    <t>patakope</t>
+  </si>
+  <si>
+    <t>donia</t>
   </si>
 </sst>
 </file>
@@ -569,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,6 +846,12 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
       <c r="E15" t="s">
         <v>59</v>
       </c>
@@ -848,6 +860,12 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
       <c r="E16" t="s">
         <v>6</v>
       </c>
@@ -855,7 +873,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
@@ -863,7 +887,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
       <c r="E18" t="s">
         <v>3</v>
       </c>
@@ -871,7 +901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>35</v>
       </c>
@@ -879,10 +909,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>SUM(B2:B19)</f>
-        <v>895</v>
+        <v>965</v>
       </c>
       <c r="D20">
         <f>SUM(D2:D19)</f>
@@ -895,7 +925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>64</v>
       </c>
@@ -903,14 +933,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(D25-B20)</f>
-        <v>258.33333333333326</v>
+        <v>211.66666666666674</v>
       </c>
       <c r="D22">
         <f>SUM(D25-D20)</f>
-        <v>58.333333333333258</v>
+        <v>81.666666666666742</v>
       </c>
       <c r="E22" t="s">
         <v>55</v>
@@ -919,7 +949,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>65</v>
       </c>
@@ -927,32 +957,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>40</v>
       </c>
       <c r="D24">
         <f>SUM(D20,F24,B20)</f>
-        <v>3460</v>
+        <v>3530</v>
       </c>
       <c r="F24">
         <f>SUM(F2:F23)</f>
         <v>1470</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25">
         <f>D24/3</f>
-        <v>1153.3333333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1176.6666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>SUM(D25-F24)</f>
-        <v>-316.66666666666674</v>
+        <v>-293.33333333333326</v>
       </c>
     </row>
   </sheetData>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,6 +902,12 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>275</v>
+      </c>
       <c r="E19" t="s">
         <v>35</v>
       </c>
@@ -912,7 +918,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>SUM(B2:B19)</f>
-        <v>965</v>
+        <v>1240</v>
       </c>
       <c r="D20">
         <f>SUM(D2:D19)</f>
@@ -936,11 +942,11 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(D25-B20)</f>
-        <v>211.66666666666674</v>
+        <v>28.333333333333258</v>
       </c>
       <c r="D22">
         <f>SUM(D25-D20)</f>
-        <v>81.666666666666742</v>
+        <v>173.33333333333326</v>
       </c>
       <c r="E22" t="s">
         <v>55</v>
@@ -963,7 +969,7 @@
       </c>
       <c r="D24">
         <f>SUM(D20,F24,B20)</f>
-        <v>3530</v>
+        <v>3805</v>
       </c>
       <c r="F24">
         <f>SUM(F2:F23)</f>
@@ -976,13 +982,13 @@
       </c>
       <c r="D25">
         <f>D24/3</f>
-        <v>1176.6666666666667</v>
+        <v>1268.3333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>SUM(D25-F24)</f>
-        <v>-293.33333333333326</v>
+        <v>-201.66666666666674</v>
       </c>
     </row>
   </sheetData>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>donia</t>
+  </si>
+  <si>
+    <t>peag</t>
   </si>
 </sst>
 </file>
@@ -573,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,6 +992,30 @@
       <c r="F26">
         <f>SUM(D25-F24)</f>
         <v>-201.66666666666674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>peag</t>
+  </si>
+  <si>
+    <t>Dim</t>
+  </si>
+  <si>
+    <t>tometo</t>
   </si>
 </sst>
 </file>
@@ -579,7 +585,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,6 +805,12 @@
       <c r="B11">
         <v>30</v>
       </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>53</v>
+      </c>
       <c r="E11" t="s">
         <v>54</v>
       </c>
@@ -812,6 +824,12 @@
       </c>
       <c r="B12">
         <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>55</v>
@@ -925,7 +943,7 @@
       </c>
       <c r="D20">
         <f>SUM(D2:D19)</f>
-        <v>1095</v>
+        <v>1168</v>
       </c>
       <c r="E20" t="s">
         <v>60</v>
@@ -945,11 +963,11 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(D25-B20)</f>
-        <v>28.333333333333258</v>
+        <v>52.666666666666742</v>
       </c>
       <c r="D22">
         <f>SUM(D25-D20)</f>
-        <v>173.33333333333326</v>
+        <v>124.66666666666674</v>
       </c>
       <c r="E22" t="s">
         <v>55</v>
@@ -972,7 +990,7 @@
       </c>
       <c r="D24">
         <f>SUM(D20,F24,B20)</f>
-        <v>3805</v>
+        <v>3878</v>
       </c>
       <c r="F24">
         <f>SUM(F2:F23)</f>
@@ -985,13 +1003,13 @@
       </c>
       <c r="D25">
         <f>D24/3</f>
-        <v>1268.3333333333333</v>
+        <v>1292.6666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>SUM(D25-F24)</f>
-        <v>-201.66666666666674</v>
+        <v>-177.33333333333326</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>tometo</t>
+  </si>
+  <si>
+    <t>peaj</t>
   </si>
 </sst>
 </file>
@@ -582,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,6 +848,12 @@
       <c r="B13">
         <v>30</v>
       </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>45</v>
+      </c>
       <c r="E13" t="s">
         <v>56</v>
       </c>
@@ -858,6 +867,12 @@
       </c>
       <c r="B14">
         <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -943,7 +958,7 @@
       </c>
       <c r="D20">
         <f>SUM(D2:D19)</f>
-        <v>1168</v>
+        <v>1233</v>
       </c>
       <c r="E20" t="s">
         <v>60</v>
@@ -963,11 +978,11 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(D25-B20)</f>
-        <v>52.666666666666742</v>
+        <v>74.333333333333258</v>
       </c>
       <c r="D22">
         <f>SUM(D25-D20)</f>
-        <v>124.66666666666674</v>
+        <v>81.333333333333258</v>
       </c>
       <c r="E22" t="s">
         <v>55</v>
@@ -990,7 +1005,7 @@
       </c>
       <c r="D24">
         <f>SUM(D20,F24,B20)</f>
-        <v>3878</v>
+        <v>3943</v>
       </c>
       <c r="F24">
         <f>SUM(F2:F23)</f>
@@ -1003,13 +1018,13 @@
       </c>
       <c r="D25">
         <f>D24/3</f>
-        <v>1292.6666666666667</v>
+        <v>1314.3333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>SUM(D25-F24)</f>
-        <v>-177.33333333333326</v>
+        <v>-155.66666666666674</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1034,6 +1049,22 @@
       </c>
       <c r="B31">
         <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="December" sheetId="2" r:id="rId1"/>
-    <sheet name="November" sheetId="1" r:id="rId2"/>
-    <sheet name="Formate" sheetId="3" r:id="rId3"/>
+    <sheet name="January" sheetId="4" r:id="rId1"/>
+    <sheet name="December" sheetId="2" r:id="rId2"/>
+    <sheet name="November" sheetId="1" r:id="rId3"/>
+    <sheet name="Formate" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="79">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -231,9 +232,6 @@
     <t>patakope</t>
   </si>
   <si>
-    <t>donia</t>
-  </si>
-  <si>
     <t>peag</t>
   </si>
   <si>
@@ -244,6 +242,18 @@
   </si>
   <si>
     <t>peaj</t>
+  </si>
+  <si>
+    <t>salgom</t>
+  </si>
+  <si>
+    <t>donia + exx</t>
+  </si>
+  <si>
+    <t>Supty</t>
+  </si>
+  <si>
+    <t>Mas + sobgi</t>
   </si>
 </sst>
 </file>
@@ -585,10 +595,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="C1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f>SUM(D2:D19)</f>
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <f>SUM(F2:F19)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22">
+        <f>SUM(D25-D20)</f>
+        <v>-33.333333333333329</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22">
+        <f>SUM(D25-F20)</f>
+        <v>-33.333333333333329</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <f>SUM(B20,D20,F20)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <f>D24/3</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +917,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11">
         <v>53</v>
@@ -829,7 +937,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12">
         <v>20</v>
@@ -869,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -888,6 +996,12 @@
       <c r="B15">
         <v>30</v>
       </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
       <c r="E15" t="s">
         <v>59</v>
       </c>
@@ -902,6 +1016,12 @@
       <c r="B16">
         <v>20</v>
       </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
       <c r="E16" t="s">
         <v>6</v>
       </c>
@@ -916,6 +1036,12 @@
       <c r="B17">
         <v>15</v>
       </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
@@ -925,10 +1051,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>185</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
@@ -954,11 +1086,11 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>SUM(B2:B19)</f>
-        <v>1240</v>
+        <v>1420</v>
       </c>
       <c r="D20">
         <f>SUM(D2:D19)</f>
-        <v>1233</v>
+        <v>1328</v>
       </c>
       <c r="E20" t="s">
         <v>60</v>
@@ -978,11 +1110,11 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>SUM(D25-B20)</f>
-        <v>74.333333333333258</v>
+        <v>-14</v>
       </c>
       <c r="D22">
         <f>SUM(D25-D20)</f>
-        <v>81.333333333333258</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
         <v>55</v>
@@ -1005,7 +1137,7 @@
       </c>
       <c r="D24">
         <f>SUM(D20,F24,B20)</f>
-        <v>3943</v>
+        <v>4218</v>
       </c>
       <c r="F24">
         <f>SUM(F2:F23)</f>
@@ -1018,13 +1150,13 @@
       </c>
       <c r="D25">
         <f>D24/3</f>
-        <v>1314.3333333333333</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>SUM(D25-F24)</f>
-        <v>-155.66666666666674</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,7 +1169,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -1065,6 +1197,12 @@
       </c>
       <c r="B33">
         <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>SUM(B29:B34)</f>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1072,7 +1210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -1442,12 +1580,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,99 +1598,45 @@
     <col min="6" max="6" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <f>SUM(B2:B19)</f>
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <f>SUM(D2:D19)</f>
-        <v>100</v>
-      </c>
-      <c r="F20">
-        <f>SUM(F2:F19)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <f>SUM(D25-B20)</f>
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22">
-        <f>SUM(D25-D20)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22">
-        <f>SUM(D25-F20)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24">
-        <f>SUM(B20,D20,F20)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25">
-        <f>D24/3</f>
-        <v>100</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>Mas + sobgi</t>
+  </si>
+  <si>
+    <t>sobgi</t>
   </si>
 </sst>
 </file>
@@ -1582,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,6 +1642,22 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -257,6 +257,30 @@
   </si>
   <si>
     <t>sobgi</t>
+  </si>
+  <si>
+    <t>burgi</t>
+  </si>
+  <si>
+    <t>brokole</t>
+  </si>
+  <si>
+    <t>ful kope</t>
+  </si>
+  <si>
+    <t>badha kope</t>
+  </si>
+  <si>
+    <t>peag pata</t>
+  </si>
+  <si>
+    <t>mula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rometo </t>
+  </si>
+  <si>
+    <t>tukre</t>
   </si>
 </sst>
 </file>
@@ -1585,10 +1609,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,6 +1657,12 @@
       <c r="B3">
         <v>160</v>
       </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>280</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1641,6 +1671,12 @@
       <c r="B4">
         <v>20</v>
       </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>250</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1649,6 +1685,12 @@
       <c r="B5">
         <v>50</v>
       </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1656,6 +1698,78 @@
       </c>
       <c r="B6">
         <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>SUM(B2:B26)</f>
+        <v>990</v>
+      </c>
+      <c r="D27">
+        <f>SUM(D2:D26)</f>
+        <v>965</v>
       </c>
     </row>
   </sheetData>
